--- a/utilities/Excel_Sheets/Products/CYB_USI.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_USI.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="75">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Casey Holsworth</t>
   </si>
 </sst>
 </file>
@@ -701,7 +698,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -793,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>7</v>

--- a/utilities/Excel_Sheets/Products/CYB_USI.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_USI.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="75">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -256,7 +256,7 @@
     <t>select_USI_PrivaSafe_Higher_Limits_with_MEDEFENSE_Plus_Combined_without_PCI_3MM_1MM_limit_10K_Deduct</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>select_USI_PrivaSafe_with_MEDEFENSE_Plus_Combined_1MM_1MM_limit_1K_Deduct</t>
   </si>
 </sst>
 </file>
@@ -693,12 +693,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,7 +720,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -764,15 +764,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>
       </c>
       <c r="C2" s="18">
-        <v>42979</v>
+        <v>43076</v>
       </c>
       <c r="D2" s="11">
         <v>2</v>
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>6</v>
@@ -807,203 +807,188 @@
       <c r="N2" s="11">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>42979</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
+        <v>42979</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="N5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18">
+        <v>42979</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <v>42979</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18">
-        <v>42979</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="11">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="16">
-        <v>42979</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="5">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16">
-        <v>42979</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="5">
-        <v>2</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16">
-        <v>42979</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="6">
-        <v>25000001</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="5">
-        <v>3</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="B9" s="10">
         <v>0</v>
@@ -1024,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>6</v>
@@ -1039,110 +1024,101 @@
         <v>1</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N9" s="11">
         <v>0</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18">
-        <v>42979</v>
-      </c>
-      <c r="D10" s="11">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17">
+        <v>42979</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="17">
+        <v>42979</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="8">
         <v>2</v>
       </c>
-      <c r="E10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L10" s="11">
-        <v>1</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="11">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="10">
-        <v>0</v>
-      </c>
-      <c r="C11" s="18">
-        <v>42979</v>
-      </c>
-      <c r="D11" s="11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L11" s="11">
-        <v>1</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -1174,118 +1150,109 @@
         <v>7</v>
       </c>
       <c r="K12" s="9">
-        <v>10000000</v>
+        <v>25000001</v>
       </c>
       <c r="L12" s="8">
         <v>1</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N12" s="8">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="17">
-        <v>42979</v>
-      </c>
-      <c r="D13" s="8">
         <v>3</v>
       </c>
-      <c r="E13" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L13" s="8">
-        <v>1</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N13" s="8">
-        <v>2</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="17">
-        <v>42979</v>
-      </c>
-      <c r="D14" s="8">
-        <v>3</v>
-      </c>
-      <c r="E14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="9">
-        <v>25000001</v>
-      </c>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="N14" s="8">
-        <v>3</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19">
+        <v>42979</v>
+      </c>
+      <c r="D13" s="14">
+        <v>4</v>
+      </c>
+      <c r="E13" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L13" s="14">
+        <v>1</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19">
+        <v>42979</v>
+      </c>
+      <c r="D14" s="14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L14" s="14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B15" s="13">
         <v>0</v>
@@ -1306,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>6</v>
@@ -1321,107 +1288,232 @@
         <v>1</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="N15" s="14">
         <v>0</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="C16" s="19">
-        <v>42979</v>
-      </c>
-      <c r="D16" s="14">
-        <v>4</v>
-      </c>
-      <c r="E16" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13" t="s">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18">
+        <v>42979</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L16" s="14">
-        <v>1</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="14">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="13">
-        <v>0</v>
-      </c>
-      <c r="C17" s="19">
-        <v>42979</v>
-      </c>
-      <c r="D17" s="14">
-        <v>4</v>
-      </c>
-      <c r="E17" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13" t="s">
+      <c r="I17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L17" s="11">
+        <v>1</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="18">
+        <v>42979</v>
+      </c>
+      <c r="D19" s="11">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L17" s="14">
-        <v>1</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" s="14">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>74</v>
+      <c r="I19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L19" s="11">
+        <v>1</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16">
+        <v>42979</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <v>42979</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16">
+        <v>42979</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="6">
+        <v>25000001</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/Excel_Sheets/Products/CYB_USI.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_USI.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" tabRatio="230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" tabRatio="230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="5" r:id="rId1"/>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -691,14 +691,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -766,13 +766,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>
       </c>
       <c r="C2" s="18">
-        <v>43076</v>
+        <v>43110</v>
       </c>
       <c r="D2" s="11">
         <v>2</v>
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>6</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="16">
-        <v>42979</v>
+        <v>43132</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="K4" s="6">
-        <v>10000000</v>
+        <v>500000</v>
       </c>
       <c r="L4" s="5">
         <v>1</v>
@@ -853,104 +853,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0</v>
-      </c>
-      <c r="C5" s="18">
-        <v>42979</v>
-      </c>
-      <c r="D5" s="11">
+    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18">
+        <v>43109</v>
+      </c>
+      <c r="D6" s="11">
         <v>2</v>
       </c>
-      <c r="E5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L5" s="11">
-        <v>1</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
-      <c r="C7" s="18">
-        <v>42979</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2</v>
-      </c>
-      <c r="E7" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="E6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L7" s="11">
-        <v>1</v>
-      </c>
-      <c r="M7" s="11" t="s">
+      <c r="I6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="11">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B8" s="10">
         <v>0</v>
       </c>
       <c r="C8" s="18">
-        <v>42979</v>
+        <v>43109</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
@@ -965,469 +922,469 @@
         <v>1</v>
       </c>
       <c r="H8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>42979</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L10" s="11">
+        <v>1</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18">
+        <v>42979</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L8" s="11">
-        <v>1</v>
-      </c>
-      <c r="M8" s="11" t="s">
+      <c r="I11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L11" s="11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="18">
-        <v>42979</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <v>42979</v>
+      </c>
+      <c r="D12" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="E12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L9" s="11">
-        <v>1</v>
-      </c>
-      <c r="M9" s="11" t="s">
+      <c r="I12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L12" s="11">
+        <v>1</v>
+      </c>
+      <c r="M12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="17">
-        <v>42979</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="17">
+        <v>42979</v>
+      </c>
+      <c r="D13" s="8">
         <v>3</v>
       </c>
-      <c r="E10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="E13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L10" s="8">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8" t="s">
+      <c r="I13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="N13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="17">
-        <v>42979</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="17">
+        <v>42979</v>
+      </c>
+      <c r="D14" s="8">
         <v>3</v>
       </c>
-      <c r="E11" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="E14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="9">
+      <c r="I14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="9">
         <v>10000001</v>
       </c>
-      <c r="L11" s="8">
-        <v>1</v>
-      </c>
-      <c r="M11" s="8" t="s">
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N14" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="17">
-        <v>42979</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="17">
+        <v>42979</v>
+      </c>
+      <c r="D15" s="8">
         <v>3</v>
       </c>
-      <c r="E12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="E15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="9">
+      <c r="I15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="9">
         <v>25000001</v>
       </c>
-      <c r="L12" s="8">
-        <v>1</v>
-      </c>
-      <c r="M12" s="8" t="s">
+      <c r="L15" s="8">
+        <v>1</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N15" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="19">
-        <v>42979</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="B16" s="13">
+        <v>0</v>
+      </c>
+      <c r="C16" s="19">
+        <v>42979</v>
+      </c>
+      <c r="D16" s="14">
         <v>4</v>
       </c>
-      <c r="E13" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13" t="s">
+      <c r="E16" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L13" s="14">
-        <v>1</v>
-      </c>
-      <c r="M13" s="14" t="s">
+      <c r="I16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L16" s="14">
+        <v>1</v>
+      </c>
+      <c r="M16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="N16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19">
-        <v>42979</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="B17" s="13">
+        <v>0</v>
+      </c>
+      <c r="C17" s="19">
+        <v>42979</v>
+      </c>
+      <c r="D17" s="14">
         <v>4</v>
       </c>
-      <c r="E14" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13" t="s">
+      <c r="E17" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L14" s="14">
-        <v>1</v>
-      </c>
-      <c r="M14" s="14" t="s">
+      <c r="I17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L17" s="14">
+        <v>1</v>
+      </c>
+      <c r="M17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="N17" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="13">
-        <v>0</v>
-      </c>
-      <c r="C15" s="19">
-        <v>42979</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="B18" s="13">
+        <v>0</v>
+      </c>
+      <c r="C18" s="19">
+        <v>42979</v>
+      </c>
+      <c r="D18" s="14">
         <v>4</v>
       </c>
-      <c r="E15" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="13" t="s">
+      <c r="E18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L15" s="14">
-        <v>1</v>
-      </c>
-      <c r="M15" s="14" t="s">
+      <c r="I18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L18" s="14">
+        <v>1</v>
+      </c>
+      <c r="M18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="10">
-        <v>0</v>
-      </c>
-      <c r="C17" s="18">
-        <v>42979</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="N18" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
+      <c r="C20" s="18">
+        <v>42979</v>
+      </c>
+      <c r="D20" s="11">
         <v>2</v>
       </c>
-      <c r="E17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L17" s="11">
-        <v>1</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="10">
-        <v>0</v>
-      </c>
-      <c r="C19" s="18">
-        <v>42979</v>
-      </c>
-      <c r="D19" s="11">
-        <v>2</v>
-      </c>
-      <c r="E19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10" t="s">
+      <c r="E20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L19" s="11">
-        <v>1</v>
-      </c>
-      <c r="M19" s="11" t="s">
+      <c r="I20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L20" s="11">
+        <v>1</v>
+      </c>
+      <c r="M20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="16">
-        <v>42979</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L21" s="5">
-        <v>1</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" s="5">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="N20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>12</v>
@@ -1460,16 +1417,16 @@
         <v>7</v>
       </c>
       <c r="K22" s="6">
-        <v>10000001</v>
+        <v>10000000</v>
       </c>
       <c r="L22" s="5">
         <v>1</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N22" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1504,27 +1461,71 @@
         <v>7</v>
       </c>
       <c r="K23" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16">
+        <v>42979</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="6">
         <v>25000001</v>
       </c>
-      <c r="L23" s="5">
-        <v>1</v>
-      </c>
-      <c r="M23" s="5" t="s">
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+      <c r="M24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N24" s="5">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1"/>
+  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O109"/>
   <sheetViews>
@@ -6354,14 +6355,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -6758,7 +6759,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/CYB_USI.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_USI.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" tabRatio="230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" tabRatio="255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="5" r:id="rId1"/>
     <sheet name="Full_Regression" sheetId="6" r:id="rId2"/>
-    <sheet name="11611" sheetId="7" r:id="rId3"/>
+    <sheet name="Regression" sheetId="8" r:id="rId3"/>
+    <sheet name="11611" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'11611'!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'11611'!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Full_Regression!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$O$1</definedName>
   </definedNames>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="75">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -693,12 +694,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -765,104 +766,107 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="10">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18">
-        <v>43110</v>
-      </c>
-      <c r="D2" s="11">
-        <v>2</v>
-      </c>
-      <c r="E2" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L2" s="11">
-        <v>1</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="11">
-        <v>0</v>
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <f ca="1">TODAY()</f>
+        <v>43194</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6">
+        <v>7500000</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="16">
-        <v>43132</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="6">
-        <v>500000</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1</v>
+      <c r="A4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18">
+        <f ca="1">TODAY()</f>
+        <v>43194</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
       </c>
       <c r="C6" s="18">
-        <v>43109</v>
+        <f ca="1">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
@@ -877,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>6</v>
@@ -886,7 +890,7 @@
         <v>7</v>
       </c>
       <c r="K6" s="12">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="L6" s="11">
         <v>1</v>
@@ -901,13 +905,14 @@
     <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B8" s="10">
         <v>0</v>
       </c>
       <c r="C8" s="18">
-        <v>43109</v>
+        <f ca="1">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
@@ -922,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>6</v>
@@ -931,13 +936,13 @@
         <v>7</v>
       </c>
       <c r="K8" s="12">
-        <v>10000000</v>
+        <v>1300000</v>
       </c>
       <c r="L8" s="11">
         <v>1</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="N8" s="11">
         <v>0</v>
@@ -952,7 +957,8 @@
         <v>0</v>
       </c>
       <c r="C10" s="18">
-        <v>42979</v>
+        <f ca="1">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
@@ -976,7 +982,7 @@
         <v>7</v>
       </c>
       <c r="K10" s="12">
-        <v>10000000</v>
+        <v>1300000</v>
       </c>
       <c r="L10" s="11">
         <v>1</v>
@@ -988,59 +994,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="10">
-        <v>0</v>
-      </c>
-      <c r="C11" s="18">
-        <v>42979</v>
-      </c>
-      <c r="D11" s="11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L11" s="11">
-        <v>1</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B12" s="10">
         <v>0</v>
       </c>
       <c r="C12" s="18">
-        <v>42979</v>
+        <f ca="1">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D12" s="11">
         <v>2</v>
@@ -1055,465 +1019,645 @@
         <v>1</v>
       </c>
       <c r="H12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L12" s="11">
+        <v>1</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18">
+        <f ca="1">TODAY()</f>
+        <v>43194</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L12" s="11">
-        <v>1</v>
-      </c>
-      <c r="M12" s="11" t="s">
+      <c r="I15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="L15" s="11">
+        <v>1</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18">
+        <v>42979</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L17" s="11">
+        <v>1</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="18">
+        <v>42979</v>
+      </c>
+      <c r="D18" s="11">
+        <v>2</v>
+      </c>
+      <c r="E18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="L18" s="11">
+        <v>1</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="18">
+        <v>42979</v>
+      </c>
+      <c r="D19" s="11">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L19" s="11">
+        <v>1</v>
+      </c>
+      <c r="M19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="17">
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="17">
         <v>42979</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D20" s="8">
         <v>3</v>
       </c>
-      <c r="E13" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L13" s="8">
-        <v>1</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="E20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1</v>
+      </c>
+      <c r="M20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="N13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="N20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="17">
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+      <c r="C21" s="17">
         <v>42979</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D21" s="8">
         <v>3</v>
       </c>
-      <c r="E14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="9">
+      <c r="E21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="9">
         <v>10000001</v>
       </c>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" s="8" t="s">
+      <c r="L21" s="8">
+        <v>1</v>
+      </c>
+      <c r="M21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N21" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="17">
+      <c r="B22" s="7">
+        <v>0</v>
+      </c>
+      <c r="C22" s="17">
         <v>42979</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D22" s="8">
         <v>3</v>
       </c>
-      <c r="E15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="9">
+      <c r="E22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="9">
         <v>25000001</v>
       </c>
-      <c r="L15" s="8">
-        <v>1</v>
-      </c>
-      <c r="M15" s="8" t="s">
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N22" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="C16" s="19">
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="19">
         <v>42979</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D23" s="14">
         <v>4</v>
       </c>
-      <c r="E16" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13" t="s">
+      <c r="E23" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L16" s="14">
-        <v>1</v>
-      </c>
-      <c r="M16" s="14" t="s">
+      <c r="I23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L23" s="14">
+        <v>1</v>
+      </c>
+      <c r="M23" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="N16" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="N23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="13">
-        <v>0</v>
-      </c>
-      <c r="C17" s="19">
+      <c r="B24" s="13">
+        <v>0</v>
+      </c>
+      <c r="C24" s="19">
         <v>42979</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D24" s="14">
         <v>4</v>
       </c>
-      <c r="E17" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13" t="s">
+      <c r="E24" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L17" s="14">
-        <v>1</v>
-      </c>
-      <c r="M17" s="14" t="s">
+      <c r="I24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L24" s="14">
+        <v>1</v>
+      </c>
+      <c r="M24" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="N24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="13">
-        <v>0</v>
-      </c>
-      <c r="C18" s="19">
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
+      <c r="C25" s="19">
         <v>42979</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D25" s="14">
         <v>4</v>
       </c>
-      <c r="E18" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="13" t="s">
+      <c r="E25" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L18" s="14">
-        <v>1</v>
-      </c>
-      <c r="M18" s="14" t="s">
+      <c r="I25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L25" s="14">
+        <v>1</v>
+      </c>
+      <c r="M25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N18" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="N25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="10">
-        <v>0</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="B27" s="10">
+        <v>0</v>
+      </c>
+      <c r="C27" s="18">
         <v>42979</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D27" s="11">
         <v>2</v>
       </c>
-      <c r="E20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="10" t="s">
+      <c r="E27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L20" s="11">
-        <v>1</v>
-      </c>
-      <c r="M20" s="11" t="s">
+      <c r="I27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L27" s="11">
+        <v>1</v>
+      </c>
+      <c r="M27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N20" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-      <c r="C22" s="16">
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16">
         <v>42979</v>
       </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L22" s="5">
-        <v>1</v>
-      </c>
-      <c r="M22" s="5" t="s">
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1</v>
+      </c>
+      <c r="M29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="N29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="16">
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="16">
         <v>42979</v>
       </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="6">
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="6">
         <v>10000001</v>
       </c>
-      <c r="L23" s="5">
-        <v>1</v>
-      </c>
-      <c r="M23" s="5" t="s">
+      <c r="L30" s="5">
+        <v>1</v>
+      </c>
+      <c r="M30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N30" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24" s="16">
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="16">
         <v>42979</v>
       </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="6">
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="6">
         <v>25000001</v>
       </c>
-      <c r="L24" s="5">
-        <v>1</v>
-      </c>
-      <c r="M24" s="5" t="s">
+      <c r="L31" s="5">
+        <v>1</v>
+      </c>
+      <c r="M31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N31" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1529,10 +1673,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M105" sqref="M105"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1610,7 +1754,8 @@
         <v>0</v>
       </c>
       <c r="C2" s="16">
-        <v>42979</v>
+        <f ca="1">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -1654,7 +1799,8 @@
         <v>0</v>
       </c>
       <c r="C3" s="16">
-        <v>42979</v>
+        <f t="shared" ref="C3:C22" ca="1" si="0">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -1698,7 +1844,8 @@
         <v>0</v>
       </c>
       <c r="C4" s="16">
-        <v>42979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1742,7 +1889,8 @@
         <v>0</v>
       </c>
       <c r="C5" s="16">
-        <v>42979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -1786,7 +1934,8 @@
         <v>0</v>
       </c>
       <c r="C6" s="16">
-        <v>42979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -1830,7 +1979,8 @@
         <v>0</v>
       </c>
       <c r="C7" s="16">
-        <v>42979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -1874,7 +2024,8 @@
         <v>0</v>
       </c>
       <c r="C8" s="16">
-        <v>42979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -1918,7 +2069,8 @@
         <v>0</v>
       </c>
       <c r="C9" s="16">
-        <v>42979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -1962,7 +2114,8 @@
         <v>0</v>
       </c>
       <c r="C10" s="16">
-        <v>42979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -2006,7 +2159,8 @@
         <v>0</v>
       </c>
       <c r="C11" s="16">
-        <v>42979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -2050,7 +2204,8 @@
         <v>0</v>
       </c>
       <c r="C12" s="16">
-        <v>42979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -2094,7 +2249,8 @@
         <v>0</v>
       </c>
       <c r="C13" s="16">
-        <v>42979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
@@ -2138,7 +2294,8 @@
         <v>0</v>
       </c>
       <c r="C14" s="16">
-        <v>42979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -2182,7 +2339,8 @@
         <v>0</v>
       </c>
       <c r="C15" s="16">
-        <v>42979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -2226,7 +2384,8 @@
         <v>0</v>
       </c>
       <c r="C16" s="16">
-        <v>42979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
@@ -2270,7 +2429,8 @@
         <v>0</v>
       </c>
       <c r="C17" s="16">
-        <v>42979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
@@ -2314,7 +2474,8 @@
         <v>0</v>
       </c>
       <c r="C18" s="16">
-        <v>42979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -2358,7 +2519,8 @@
         <v>0</v>
       </c>
       <c r="C19" s="16">
-        <v>42979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
@@ -2402,7 +2564,8 @@
         <v>0</v>
       </c>
       <c r="C20" s="16">
-        <v>42979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
@@ -2446,7 +2609,8 @@
         <v>0</v>
       </c>
       <c r="C21" s="16">
-        <v>42979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
@@ -2490,7 +2654,8 @@
         <v>0</v>
       </c>
       <c r="C22" s="16">
-        <v>42979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
@@ -2534,7 +2699,8 @@
         <v>0</v>
       </c>
       <c r="C23" s="18">
-        <v>42979</v>
+        <f ca="1">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
@@ -2578,7 +2744,8 @@
         <v>0</v>
       </c>
       <c r="C24" s="18">
-        <v>42979</v>
+        <f t="shared" ref="C24:C33" ca="1" si="1">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
@@ -2622,7 +2789,8 @@
         <v>0</v>
       </c>
       <c r="C25" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43194</v>
       </c>
       <c r="D25" s="11">
         <v>2</v>
@@ -2666,7 +2834,8 @@
         <v>0</v>
       </c>
       <c r="C26" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43194</v>
       </c>
       <c r="D26" s="11">
         <v>2</v>
@@ -2710,7 +2879,8 @@
         <v>0</v>
       </c>
       <c r="C27" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43194</v>
       </c>
       <c r="D27" s="11">
         <v>2</v>
@@ -2754,7 +2924,8 @@
         <v>0</v>
       </c>
       <c r="C28" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43194</v>
       </c>
       <c r="D28" s="11">
         <v>2</v>
@@ -2798,7 +2969,8 @@
         <v>0</v>
       </c>
       <c r="C29" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43194</v>
       </c>
       <c r="D29" s="11">
         <v>2</v>
@@ -2842,7 +3014,8 @@
         <v>0</v>
       </c>
       <c r="C30" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43194</v>
       </c>
       <c r="D30" s="11">
         <v>2</v>
@@ -2886,7 +3059,8 @@
         <v>0</v>
       </c>
       <c r="C31" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43194</v>
       </c>
       <c r="D31" s="11">
         <v>2</v>
@@ -2930,7 +3104,8 @@
         <v>0</v>
       </c>
       <c r="C32" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43194</v>
       </c>
       <c r="D32" s="11">
         <v>2</v>
@@ -2974,7 +3149,8 @@
         <v>0</v>
       </c>
       <c r="C33" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43194</v>
       </c>
       <c r="D33" s="11">
         <v>2</v>
@@ -3018,7 +3194,8 @@
         <v>0</v>
       </c>
       <c r="C34" s="17">
-        <v>42979</v>
+        <f ca="1">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D34" s="8">
         <v>3</v>
@@ -3062,7 +3239,8 @@
         <v>0</v>
       </c>
       <c r="C35" s="17">
-        <v>42979</v>
+        <f t="shared" ref="C35:C54" ca="1" si="2">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D35" s="8">
         <v>3</v>
@@ -3106,7 +3284,8 @@
         <v>0</v>
       </c>
       <c r="C36" s="17">
-        <v>42979</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43194</v>
       </c>
       <c r="D36" s="8">
         <v>3</v>
@@ -3150,7 +3329,8 @@
         <v>0</v>
       </c>
       <c r="C37" s="17">
-        <v>42979</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43194</v>
       </c>
       <c r="D37" s="8">
         <v>3</v>
@@ -3194,7 +3374,8 @@
         <v>0</v>
       </c>
       <c r="C38" s="17">
-        <v>42979</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43194</v>
       </c>
       <c r="D38" s="8">
         <v>3</v>
@@ -3238,7 +3419,8 @@
         <v>0</v>
       </c>
       <c r="C39" s="17">
-        <v>42979</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43194</v>
       </c>
       <c r="D39" s="8">
         <v>3</v>
@@ -3282,7 +3464,8 @@
         <v>0</v>
       </c>
       <c r="C40" s="17">
-        <v>42979</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43194</v>
       </c>
       <c r="D40" s="8">
         <v>3</v>
@@ -3326,7 +3509,8 @@
         <v>0</v>
       </c>
       <c r="C41" s="17">
-        <v>42979</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43194</v>
       </c>
       <c r="D41" s="8">
         <v>3</v>
@@ -3370,7 +3554,8 @@
         <v>0</v>
       </c>
       <c r="C42" s="17">
-        <v>42979</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43194</v>
       </c>
       <c r="D42" s="8">
         <v>3</v>
@@ -3414,7 +3599,8 @@
         <v>0</v>
       </c>
       <c r="C43" s="17">
-        <v>42979</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43194</v>
       </c>
       <c r="D43" s="8">
         <v>3</v>
@@ -3458,7 +3644,8 @@
         <v>0</v>
       </c>
       <c r="C44" s="17">
-        <v>42979</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43194</v>
       </c>
       <c r="D44" s="8">
         <v>3</v>
@@ -3502,7 +3689,8 @@
         <v>0</v>
       </c>
       <c r="C45" s="17">
-        <v>42979</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43194</v>
       </c>
       <c r="D45" s="8">
         <v>3</v>
@@ -3546,7 +3734,8 @@
         <v>0</v>
       </c>
       <c r="C46" s="17">
-        <v>42979</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43194</v>
       </c>
       <c r="D46" s="8">
         <v>3</v>
@@ -3590,7 +3779,8 @@
         <v>0</v>
       </c>
       <c r="C47" s="17">
-        <v>42979</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43194</v>
       </c>
       <c r="D47" s="8">
         <v>3</v>
@@ -3634,7 +3824,8 @@
         <v>0</v>
       </c>
       <c r="C48" s="17">
-        <v>42979</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43194</v>
       </c>
       <c r="D48" s="8">
         <v>3</v>
@@ -3678,7 +3869,8 @@
         <v>0</v>
       </c>
       <c r="C49" s="17">
-        <v>42979</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43194</v>
       </c>
       <c r="D49" s="8">
         <v>3</v>
@@ -3722,7 +3914,8 @@
         <v>0</v>
       </c>
       <c r="C50" s="17">
-        <v>42979</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43194</v>
       </c>
       <c r="D50" s="8">
         <v>3</v>
@@ -3766,7 +3959,8 @@
         <v>0</v>
       </c>
       <c r="C51" s="17">
-        <v>42979</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43194</v>
       </c>
       <c r="D51" s="8">
         <v>3</v>
@@ -3810,7 +4004,8 @@
         <v>0</v>
       </c>
       <c r="C52" s="17">
-        <v>42979</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43194</v>
       </c>
       <c r="D52" s="8">
         <v>3</v>
@@ -3854,7 +4049,8 @@
         <v>0</v>
       </c>
       <c r="C53" s="17">
-        <v>42979</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43194</v>
       </c>
       <c r="D53" s="8">
         <v>3</v>
@@ -3898,7 +4094,8 @@
         <v>0</v>
       </c>
       <c r="C54" s="17">
-        <v>42979</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43194</v>
       </c>
       <c r="D54" s="8">
         <v>3</v>
@@ -3942,7 +4139,8 @@
         <v>0</v>
       </c>
       <c r="C55" s="19">
-        <v>42979</v>
+        <f ca="1">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D55" s="14">
         <v>4</v>
@@ -3986,7 +4184,8 @@
         <v>0</v>
       </c>
       <c r="C56" s="19">
-        <v>42979</v>
+        <f t="shared" ref="C56:C65" ca="1" si="3">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D56" s="14">
         <v>4</v>
@@ -4030,7 +4229,8 @@
         <v>0</v>
       </c>
       <c r="C57" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>43194</v>
       </c>
       <c r="D57" s="14">
         <v>4</v>
@@ -4074,7 +4274,8 @@
         <v>0</v>
       </c>
       <c r="C58" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>43194</v>
       </c>
       <c r="D58" s="14">
         <v>4</v>
@@ -4118,7 +4319,8 @@
         <v>0</v>
       </c>
       <c r="C59" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>43194</v>
       </c>
       <c r="D59" s="14">
         <v>4</v>
@@ -4162,7 +4364,8 @@
         <v>0</v>
       </c>
       <c r="C60" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>43194</v>
       </c>
       <c r="D60" s="14">
         <v>4</v>
@@ -4206,7 +4409,8 @@
         <v>0</v>
       </c>
       <c r="C61" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>43194</v>
       </c>
       <c r="D61" s="14">
         <v>4</v>
@@ -4250,7 +4454,8 @@
         <v>0</v>
       </c>
       <c r="C62" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>43194</v>
       </c>
       <c r="D62" s="14">
         <v>4</v>
@@ -4294,7 +4499,8 @@
         <v>0</v>
       </c>
       <c r="C63" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>43194</v>
       </c>
       <c r="D63" s="14">
         <v>4</v>
@@ -4338,7 +4544,8 @@
         <v>0</v>
       </c>
       <c r="C64" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>43194</v>
       </c>
       <c r="D64" s="14">
         <v>4</v>
@@ -4382,7 +4589,8 @@
         <v>0</v>
       </c>
       <c r="C65" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>43194</v>
       </c>
       <c r="D65" s="14">
         <v>4</v>
@@ -4426,7 +4634,8 @@
         <v>0</v>
       </c>
       <c r="C66" s="18">
-        <v>42979</v>
+        <f ca="1">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D66" s="11">
         <v>2</v>
@@ -4470,7 +4679,8 @@
         <v>0</v>
       </c>
       <c r="C67" s="18">
-        <v>42979</v>
+        <f t="shared" ref="C67:C76" ca="1" si="4">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D67" s="11">
         <v>2</v>
@@ -4514,7 +4724,8 @@
         <v>0</v>
       </c>
       <c r="C68" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>43194</v>
       </c>
       <c r="D68" s="11">
         <v>2</v>
@@ -4558,7 +4769,8 @@
         <v>0</v>
       </c>
       <c r="C69" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>43194</v>
       </c>
       <c r="D69" s="11">
         <v>2</v>
@@ -4602,7 +4814,8 @@
         <v>0</v>
       </c>
       <c r="C70" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>43194</v>
       </c>
       <c r="D70" s="11">
         <v>2</v>
@@ -4646,7 +4859,8 @@
         <v>0</v>
       </c>
       <c r="C71" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>43194</v>
       </c>
       <c r="D71" s="11">
         <v>2</v>
@@ -4690,7 +4904,8 @@
         <v>0</v>
       </c>
       <c r="C72" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>43194</v>
       </c>
       <c r="D72" s="11">
         <v>2</v>
@@ -4734,7 +4949,8 @@
         <v>0</v>
       </c>
       <c r="C73" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>43194</v>
       </c>
       <c r="D73" s="11">
         <v>2</v>
@@ -4778,7 +4994,8 @@
         <v>0</v>
       </c>
       <c r="C74" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>43194</v>
       </c>
       <c r="D74" s="11">
         <v>2</v>
@@ -4822,7 +5039,8 @@
         <v>0</v>
       </c>
       <c r="C75" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>43194</v>
       </c>
       <c r="D75" s="11">
         <v>2</v>
@@ -4866,7 +5084,8 @@
         <v>0</v>
       </c>
       <c r="C76" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>43194</v>
       </c>
       <c r="D76" s="11">
         <v>2</v>
@@ -4910,7 +5129,8 @@
         <v>0</v>
       </c>
       <c r="C77" s="19">
-        <v>42979</v>
+        <f ca="1">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D77" s="14">
         <v>4</v>
@@ -4954,7 +5174,8 @@
         <v>0</v>
       </c>
       <c r="C78" s="19">
-        <v>42979</v>
+        <f t="shared" ref="C78:C87" ca="1" si="5">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D78" s="14">
         <v>4</v>
@@ -4998,7 +5219,8 @@
         <v>0</v>
       </c>
       <c r="C79" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43194</v>
       </c>
       <c r="D79" s="14">
         <v>4</v>
@@ -5042,7 +5264,8 @@
         <v>0</v>
       </c>
       <c r="C80" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43194</v>
       </c>
       <c r="D80" s="14">
         <v>4</v>
@@ -5086,7 +5309,8 @@
         <v>0</v>
       </c>
       <c r="C81" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43194</v>
       </c>
       <c r="D81" s="14">
         <v>4</v>
@@ -5130,7 +5354,8 @@
         <v>0</v>
       </c>
       <c r="C82" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43194</v>
       </c>
       <c r="D82" s="14">
         <v>4</v>
@@ -5174,7 +5399,8 @@
         <v>0</v>
       </c>
       <c r="C83" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43194</v>
       </c>
       <c r="D83" s="14">
         <v>4</v>
@@ -5218,7 +5444,8 @@
         <v>0</v>
       </c>
       <c r="C84" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43194</v>
       </c>
       <c r="D84" s="14">
         <v>4</v>
@@ -5262,7 +5489,8 @@
         <v>0</v>
       </c>
       <c r="C85" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43194</v>
       </c>
       <c r="D85" s="14">
         <v>4</v>
@@ -5306,7 +5534,8 @@
         <v>0</v>
       </c>
       <c r="C86" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43194</v>
       </c>
       <c r="D86" s="14">
         <v>4</v>
@@ -5350,7 +5579,8 @@
         <v>0</v>
       </c>
       <c r="C87" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43194</v>
       </c>
       <c r="D87" s="14">
         <v>4</v>
@@ -5394,7 +5624,8 @@
         <v>0</v>
       </c>
       <c r="C88" s="18">
-        <v>42979</v>
+        <f ca="1">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D88" s="11">
         <v>2</v>
@@ -5438,7 +5669,8 @@
         <v>0</v>
       </c>
       <c r="C89" s="18">
-        <v>42979</v>
+        <f t="shared" ref="C89:C98" ca="1" si="6">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D89" s="11">
         <v>2</v>
@@ -5482,7 +5714,8 @@
         <v>0</v>
       </c>
       <c r="C90" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>43194</v>
       </c>
       <c r="D90" s="11">
         <v>2</v>
@@ -5526,7 +5759,8 @@
         <v>0</v>
       </c>
       <c r="C91" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>43194</v>
       </c>
       <c r="D91" s="11">
         <v>2</v>
@@ -5570,7 +5804,8 @@
         <v>0</v>
       </c>
       <c r="C92" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>43194</v>
       </c>
       <c r="D92" s="11">
         <v>2</v>
@@ -5614,7 +5849,8 @@
         <v>0</v>
       </c>
       <c r="C93" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>43194</v>
       </c>
       <c r="D93" s="11">
         <v>2</v>
@@ -5658,7 +5894,8 @@
         <v>0</v>
       </c>
       <c r="C94" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>43194</v>
       </c>
       <c r="D94" s="11">
         <v>2</v>
@@ -5702,7 +5939,8 @@
         <v>0</v>
       </c>
       <c r="C95" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>43194</v>
       </c>
       <c r="D95" s="11">
         <v>2</v>
@@ -5746,7 +5984,8 @@
         <v>0</v>
       </c>
       <c r="C96" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>43194</v>
       </c>
       <c r="D96" s="11">
         <v>2</v>
@@ -5790,7 +6029,8 @@
         <v>0</v>
       </c>
       <c r="C97" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>43194</v>
       </c>
       <c r="D97" s="11">
         <v>2</v>
@@ -5834,7 +6074,8 @@
         <v>0</v>
       </c>
       <c r="C98" s="18">
-        <v>42979</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>43194</v>
       </c>
       <c r="D98" s="11">
         <v>2</v>
@@ -5878,7 +6119,8 @@
         <v>0</v>
       </c>
       <c r="C99" s="19">
-        <v>42979</v>
+        <f ca="1">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D99" s="14">
         <v>4</v>
@@ -5922,7 +6164,8 @@
         <v>0</v>
       </c>
       <c r="C100" s="19">
-        <v>42979</v>
+        <f t="shared" ref="C100:C109" ca="1" si="7">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D100" s="14">
         <v>4</v>
@@ -5966,7 +6209,8 @@
         <v>0</v>
       </c>
       <c r="C101" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>43194</v>
       </c>
       <c r="D101" s="14">
         <v>4</v>
@@ -6010,7 +6254,8 @@
         <v>0</v>
       </c>
       <c r="C102" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>43194</v>
       </c>
       <c r="D102" s="14">
         <v>4</v>
@@ -6054,7 +6299,8 @@
         <v>0</v>
       </c>
       <c r="C103" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>43194</v>
       </c>
       <c r="D103" s="14">
         <v>4</v>
@@ -6098,7 +6344,8 @@
         <v>0</v>
       </c>
       <c r="C104" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>43194</v>
       </c>
       <c r="D104" s="14">
         <v>4</v>
@@ -6142,7 +6389,8 @@
         <v>0</v>
       </c>
       <c r="C105" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>43194</v>
       </c>
       <c r="D105" s="14">
         <v>4</v>
@@ -6186,7 +6434,8 @@
         <v>0</v>
       </c>
       <c r="C106" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>43194</v>
       </c>
       <c r="D106" s="14">
         <v>4</v>
@@ -6230,7 +6479,8 @@
         <v>0</v>
       </c>
       <c r="C107" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>43194</v>
       </c>
       <c r="D107" s="14">
         <v>4</v>
@@ -6274,7 +6524,8 @@
         <v>0</v>
       </c>
       <c r="C108" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>43194</v>
       </c>
       <c r="D108" s="14">
         <v>4</v>
@@ -6318,7 +6569,8 @@
         <v>0</v>
       </c>
       <c r="C109" s="19">
-        <v>42979</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>43194</v>
       </c>
       <c r="D109" s="14">
         <v>4</v>
@@ -6362,6 +6614,2307 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450B3400-29EB-4314-AA9B-64D47287AC9D}">
+  <dimension ref="A1:O51"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="130.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <f t="shared" ref="C2:C51" ca="1" si="0">TODAY()</f>
+        <v>43194</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6">
+        <v>75000000</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L25" s="5">
+        <v>1</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L28" s="5">
+        <v>1</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L30" s="5">
+        <v>1</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L32" s="5">
+        <v>1</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L34" s="5">
+        <v>1</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L36" s="5">
+        <v>1</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L38" s="5">
+        <v>1</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L41" s="5">
+        <v>1</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L42" s="5">
+        <v>1</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L43" s="5">
+        <v>1</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L44" s="5">
+        <v>1</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L45" s="5">
+        <v>1</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L46" s="5">
+        <v>1</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L47" s="5">
+        <v>1</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L48" s="5">
+        <v>1</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L49" s="5">
+        <v>1</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L50" s="5">
+        <v>1</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43194</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L51" s="5">
+        <v>1</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>

--- a/utilities/Excel_Sheets/Products/CYB_USI.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_USI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" tabRatio="255" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" tabRatio="255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="5" r:id="rId1"/>
@@ -591,10 +591,987 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N31"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="133.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18">
+        <f ca="1">TODAY()</f>
+        <v>43313</v>
+      </c>
+      <c r="D2" s="11">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="12">
+        <v>1300000</v>
+      </c>
+      <c r="L2" s="11">
+        <v>1</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <f ca="1">TODAY()</f>
+        <v>43313</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="6">
+        <v>7500000</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18">
+        <f ca="1">TODAY()</f>
+        <v>43313</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <f ca="1">TODAY()</f>
+        <v>43313</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <f ca="1">TODAY()</f>
+        <v>43313</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1300000</v>
+      </c>
+      <c r="L10" s="11">
+        <v>1</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <f ca="1">TODAY()</f>
+        <v>43313</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2</v>
+      </c>
+      <c r="E12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L12" s="11">
+        <v>1</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18">
+        <f ca="1">TODAY()</f>
+        <v>43313</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="L15" s="11">
+        <v>1</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18">
+        <v>42979</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L17" s="11">
+        <v>1</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="18">
+        <v>42979</v>
+      </c>
+      <c r="D18" s="11">
+        <v>2</v>
+      </c>
+      <c r="E18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="L18" s="11">
+        <v>1</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="18">
+        <v>42979</v>
+      </c>
+      <c r="D19" s="11">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L19" s="11">
+        <v>1</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="17">
+        <v>42979</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+      <c r="C21" s="17">
+        <v>42979</v>
+      </c>
+      <c r="D21" s="8">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0</v>
+      </c>
+      <c r="C22" s="17">
+        <v>42979</v>
+      </c>
+      <c r="D22" s="8">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="9">
+        <v>25000001</v>
+      </c>
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="19">
+        <v>42979</v>
+      </c>
+      <c r="D23" s="14">
+        <v>4</v>
+      </c>
+      <c r="E23" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L23" s="14">
+        <v>1</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0</v>
+      </c>
+      <c r="C24" s="19">
+        <v>42979</v>
+      </c>
+      <c r="D24" s="14">
+        <v>4</v>
+      </c>
+      <c r="E24" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L24" s="14">
+        <v>1</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
+      <c r="C25" s="19">
+        <v>42979</v>
+      </c>
+      <c r="D25" s="14">
+        <v>4</v>
+      </c>
+      <c r="E25" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L25" s="14">
+        <v>1</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="10">
+        <v>0</v>
+      </c>
+      <c r="C27" s="18">
+        <v>42979</v>
+      </c>
+      <c r="D27" s="11">
+        <v>2</v>
+      </c>
+      <c r="E27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L27" s="11">
+        <v>1</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16">
+        <v>42979</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="16">
+        <v>42979</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L30" s="5">
+        <v>1</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="16">
+        <v>42979</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="6">
+        <v>25000001</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N31" s="5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC437012-F5A6-401D-8849-604B5A42ACA5}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:N22"/>
+  <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -669,7 +1646,7 @@
       </c>
       <c r="C2" s="16">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43313</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -714,984 +1691,8 @@
         <v>0</v>
       </c>
       <c r="C4" s="18">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="12">
-        <v>3000000</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-      <c r="C6" s="18">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
-      </c>
-      <c r="D6" s="11">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="12">
-        <v>3000000</v>
-      </c>
-      <c r="L6" s="11">
-        <v>1</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0</v>
-      </c>
-      <c r="C8" s="18">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
-      </c>
-      <c r="D8" s="11">
-        <v>2</v>
-      </c>
-      <c r="E8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="12">
-        <v>1300000</v>
-      </c>
-      <c r="L8" s="11">
-        <v>1</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
-      </c>
-      <c r="D10" s="11">
-        <v>2</v>
-      </c>
-      <c r="E10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="12">
-        <v>1300000</v>
-      </c>
-      <c r="L10" s="11">
-        <v>1</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="10">
-        <v>0</v>
-      </c>
-      <c r="C12" s="18">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2</v>
-      </c>
-      <c r="E12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L12" s="11">
-        <v>1</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="10">
-        <v>0</v>
-      </c>
-      <c r="C15" s="18">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
-      </c>
-      <c r="D15" s="11">
-        <v>2</v>
-      </c>
-      <c r="E15" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="12">
-        <v>3000000</v>
-      </c>
-      <c r="L15" s="11">
-        <v>1</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="10">
-        <v>0</v>
-      </c>
-      <c r="C17" s="18">
-        <v>42979</v>
-      </c>
-      <c r="D17" s="11">
-        <v>2</v>
-      </c>
-      <c r="E17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L17" s="11">
-        <v>1</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="10">
-        <v>0</v>
-      </c>
-      <c r="C18" s="18">
-        <v>42979</v>
-      </c>
-      <c r="D18" s="11">
-        <v>2</v>
-      </c>
-      <c r="E18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="12">
-        <v>3000000</v>
-      </c>
-      <c r="L18" s="11">
-        <v>1</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="10">
-        <v>0</v>
-      </c>
-      <c r="C19" s="18">
-        <v>42979</v>
-      </c>
-      <c r="D19" s="11">
-        <v>2</v>
-      </c>
-      <c r="E19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L19" s="11">
-        <v>1</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0</v>
-      </c>
-      <c r="C20" s="17">
-        <v>42979</v>
-      </c>
-      <c r="D20" s="8">
-        <v>3</v>
-      </c>
-      <c r="E20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L20" s="8">
-        <v>1</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="7">
-        <v>0</v>
-      </c>
-      <c r="C21" s="17">
-        <v>42979</v>
-      </c>
-      <c r="D21" s="8">
-        <v>3</v>
-      </c>
-      <c r="E21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L21" s="8">
-        <v>1</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="7">
-        <v>0</v>
-      </c>
-      <c r="C22" s="17">
-        <v>42979</v>
-      </c>
-      <c r="D22" s="8">
-        <v>3</v>
-      </c>
-      <c r="E22" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="9">
-        <v>25000001</v>
-      </c>
-      <c r="L22" s="8">
-        <v>1</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="13">
-        <v>0</v>
-      </c>
-      <c r="C23" s="19">
-        <v>42979</v>
-      </c>
-      <c r="D23" s="14">
-        <v>4</v>
-      </c>
-      <c r="E23" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L23" s="14">
-        <v>1</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="N23" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="13">
-        <v>0</v>
-      </c>
-      <c r="C24" s="19">
-        <v>42979</v>
-      </c>
-      <c r="D24" s="14">
-        <v>4</v>
-      </c>
-      <c r="E24" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L24" s="14">
-        <v>1</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="N24" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="13">
-        <v>0</v>
-      </c>
-      <c r="C25" s="19">
-        <v>42979</v>
-      </c>
-      <c r="D25" s="14">
-        <v>4</v>
-      </c>
-      <c r="E25" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L25" s="14">
-        <v>1</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="10">
-        <v>0</v>
-      </c>
-      <c r="C27" s="18">
-        <v>42979</v>
-      </c>
-      <c r="D27" s="11">
-        <v>2</v>
-      </c>
-      <c r="E27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L27" s="11">
-        <v>1</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-      <c r="C29" s="16">
-        <v>42979</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L29" s="5">
-        <v>1</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="16">
-        <v>42979</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L30" s="5">
-        <v>1</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N30" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-      <c r="C31" s="16">
-        <v>42979</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="6">
-        <v>25000001</v>
-      </c>
-      <c r="L31" s="5">
-        <v>1</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N31" s="5">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC437012-F5A6-401D-8849-604B5A42ACA5}">
-  <dimension ref="A1:N22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="133.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="6">
-        <v>7500000</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ref="C4:C9" ca="1" si="0">TODAY()</f>
+        <v>43313</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
@@ -1735,8 +1736,8 @@
         <v>0</v>
       </c>
       <c r="C5" s="18">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43313</v>
       </c>
       <c r="D5" s="11">
         <v>2</v>
@@ -1780,8 +1781,8 @@
         <v>0</v>
       </c>
       <c r="C6" s="18">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43313</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
@@ -1825,8 +1826,8 @@
         <v>0</v>
       </c>
       <c r="C7" s="18">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43313</v>
       </c>
       <c r="D7" s="11">
         <v>2</v>
@@ -1870,8 +1871,8 @@
         <v>0</v>
       </c>
       <c r="C8" s="18">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43313</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
@@ -1915,8 +1916,8 @@
         <v>0</v>
       </c>
       <c r="C9" s="18">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43313</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
@@ -2533,6 +2534,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">

--- a/utilities/Excel_Sheets/Products/CYB_USI.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_USI.xlsx
@@ -594,7 +594,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -661,107 +661,107 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
         <f ca="1">TODAY()</f>
-        <v>43313</v>
-      </c>
-      <c r="D2" s="11">
-        <v>2</v>
-      </c>
-      <c r="E2" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="12">
-        <v>1300000</v>
-      </c>
-      <c r="L2" s="11">
-        <v>1</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="11">
-        <v>0</v>
+        <v>43382</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6">
+        <v>7500000</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="A4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18">
         <f ca="1">TODAY()</f>
-        <v>43313</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="6">
-        <v>7500000</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1</v>
+        <v>43382</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
       </c>
       <c r="C6" s="18">
         <f ca="1">TODAY()</f>
-        <v>43313</v>
+        <v>43382</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>6</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N6" s="11">
         <v>0</v>
@@ -800,14 +800,14 @@
     <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="10">
         <v>0</v>
       </c>
       <c r="C8" s="18">
         <f ca="1">TODAY()</f>
-        <v>43313</v>
+        <v>43382</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>6</v>
@@ -831,7 +831,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="12">
-        <v>3000000</v>
+        <v>1300000</v>
       </c>
       <c r="L8" s="11">
         <v>1</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="C10" s="18">
         <f ca="1">TODAY()</f>
-        <v>43313</v>
+        <v>43382</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
@@ -899,7 +899,7 @@
       </c>
       <c r="C12" s="18">
         <f ca="1">TODAY()</f>
-        <v>43313</v>
+        <v>43382</v>
       </c>
       <c r="D12" s="11">
         <v>2</v>
@@ -946,7 +946,7 @@
       </c>
       <c r="C15" s="18">
         <f ca="1">TODAY()</f>
-        <v>43313</v>
+        <v>43382</v>
       </c>
       <c r="D15" s="11">
         <v>2</v>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="C2" s="16">
         <f ca="1">TODAY()</f>
-        <v>43313</v>
+        <v>43382</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="C4" s="18">
         <f t="shared" ref="C4:C9" ca="1" si="0">TODAY()</f>
-        <v>43313</v>
+        <v>43382</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="C5" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
+        <v>43382</v>
       </c>
       <c r="D5" s="11">
         <v>2</v>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C6" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
+        <v>43382</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="C7" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
+        <v>43382</v>
       </c>
       <c r="D7" s="11">
         <v>2</v>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="C8" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
+        <v>43382</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="C9" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
+        <v>43382</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>

--- a/utilities/Excel_Sheets/Products/CYB_USI.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_USI.xlsx
@@ -18,8 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'11611'!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regression!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regression!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="43">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -589,12 +589,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -603,20 +603,17 @@
     <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="133.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="19.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="133.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -630,37 +627,28 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -669,44 +657,35 @@
       </c>
       <c r="C2" s="16">
         <f ca="1">TODAY()</f>
-        <v>43382</v>
+        <v>43385</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="6">
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6">
         <v>7500000</v>
       </c>
-      <c r="L2" s="5">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
@@ -715,44 +694,35 @@
       </c>
       <c r="C4" s="18">
         <f ca="1">TODAY()</f>
-        <v>43382</v>
+        <v>43385</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
       </c>
-      <c r="E4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="F4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="12">
         <v>3000000</v>
       </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11" t="s">
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -761,44 +731,35 @@
       </c>
       <c r="C6" s="18">
         <f ca="1">TODAY()</f>
-        <v>43382</v>
+        <v>43385</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
       </c>
-      <c r="E6" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="12">
+      <c r="F6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="12">
         <v>3000000</v>
       </c>
-      <c r="L6" s="11">
-        <v>1</v>
-      </c>
-      <c r="M6" s="11" t="s">
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -807,44 +768,35 @@
       </c>
       <c r="C8" s="18">
         <f ca="1">TODAY()</f>
-        <v>43382</v>
+        <v>43385</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
       </c>
-      <c r="E8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="12">
+      <c r="F8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="12">
         <v>1300000</v>
       </c>
-      <c r="L8" s="11">
-        <v>1</v>
-      </c>
-      <c r="M8" s="11" t="s">
+      <c r="I8" s="11">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
@@ -853,44 +805,35 @@
       </c>
       <c r="C10" s="18">
         <f ca="1">TODAY()</f>
-        <v>43382</v>
+        <v>43385</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
       </c>
-      <c r="E10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="12">
+      <c r="F10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="12">
         <v>1300000</v>
       </c>
-      <c r="L10" s="11">
-        <v>1</v>
-      </c>
-      <c r="M10" s="11" t="s">
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
@@ -899,45 +842,36 @@
       </c>
       <c r="C12" s="18">
         <f ca="1">TODAY()</f>
-        <v>43382</v>
+        <v>43385</v>
       </c>
       <c r="D12" s="11">
         <v>2</v>
       </c>
-      <c r="E12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="12">
+      <c r="F12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="12">
         <v>10000000</v>
       </c>
-      <c r="L12" s="11">
-        <v>1</v>
-      </c>
-      <c r="M12" s="11" t="s">
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
@@ -946,44 +880,35 @@
       </c>
       <c r="C15" s="18">
         <f ca="1">TODAY()</f>
-        <v>43382</v>
+        <v>43385</v>
       </c>
       <c r="D15" s="11">
         <v>2</v>
       </c>
-      <c r="E15" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="12">
+      <c r="F15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="12">
         <v>3000000</v>
       </c>
-      <c r="L15" s="11">
-        <v>1</v>
-      </c>
-      <c r="M15" s="11" t="s">
+      <c r="I15" s="11">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
@@ -996,38 +921,29 @@
       <c r="D17" s="11">
         <v>2</v>
       </c>
-      <c r="E17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="12">
+      <c r="F17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="12">
         <v>10000000</v>
       </c>
-      <c r="L17" s="11">
-        <v>1</v>
-      </c>
-      <c r="M17" s="11" t="s">
+      <c r="I17" s="11">
+        <v>1</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
@@ -1040,38 +956,29 @@
       <c r="D18" s="11">
         <v>2</v>
       </c>
-      <c r="E18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="12">
+      <c r="F18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="12">
         <v>3000000</v>
       </c>
-      <c r="L18" s="11">
-        <v>1</v>
-      </c>
-      <c r="M18" s="11" t="s">
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1084,38 +991,29 @@
       <c r="D19" s="11">
         <v>2</v>
       </c>
-      <c r="E19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="12">
+      <c r="F19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="12">
         <v>10000000</v>
       </c>
-      <c r="L19" s="11">
-        <v>1</v>
-      </c>
-      <c r="M19" s="11" t="s">
+      <c r="I19" s="11">
+        <v>1</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
@@ -1128,38 +1026,29 @@
       <c r="D20" s="8">
         <v>3</v>
       </c>
-      <c r="E20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="9">
+      <c r="F20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="9">
         <v>10000000</v>
       </c>
-      <c r="L20" s="8">
-        <v>1</v>
-      </c>
-      <c r="M20" s="8" t="s">
+      <c r="I20" s="8">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N20" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
@@ -1172,38 +1061,29 @@
       <c r="D21" s="8">
         <v>3</v>
       </c>
-      <c r="E21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="9">
+      <c r="F21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="9">
         <v>10000001</v>
       </c>
-      <c r="L21" s="8">
-        <v>1</v>
-      </c>
-      <c r="M21" s="8" t="s">
+      <c r="I21" s="8">
+        <v>1</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K21" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>15</v>
       </c>
@@ -1216,38 +1096,29 @@
       <c r="D22" s="8">
         <v>3</v>
       </c>
-      <c r="E22" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="9">
+      <c r="F22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="9">
         <v>25000001</v>
       </c>
-      <c r="L22" s="8">
-        <v>1</v>
-      </c>
-      <c r="M22" s="8" t="s">
+      <c r="I22" s="8">
+        <v>1</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N22" s="8">
+      <c r="K22" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>16</v>
       </c>
@@ -1260,38 +1131,29 @@
       <c r="D23" s="14">
         <v>4</v>
       </c>
-      <c r="E23" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="15">
+      <c r="F23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="15">
         <v>10000000</v>
       </c>
-      <c r="L23" s="14">
-        <v>1</v>
-      </c>
-      <c r="M23" s="14" t="s">
+      <c r="I23" s="14">
+        <v>1</v>
+      </c>
+      <c r="J23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>17</v>
       </c>
@@ -1304,38 +1166,29 @@
       <c r="D24" s="14">
         <v>4</v>
       </c>
-      <c r="E24" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="13" t="s">
+      <c r="E24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="15">
+      <c r="F24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="15">
         <v>10000000</v>
       </c>
-      <c r="L24" s="14">
-        <v>1</v>
-      </c>
-      <c r="M24" s="14" t="s">
+      <c r="I24" s="14">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="N24" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>25</v>
       </c>
@@ -1348,38 +1201,29 @@
       <c r="D25" s="14">
         <v>4</v>
       </c>
-      <c r="E25" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="13" t="s">
+      <c r="E25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="15">
+      <c r="F25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="15">
         <v>10000000</v>
       </c>
-      <c r="L25" s="14">
-        <v>1</v>
-      </c>
-      <c r="M25" s="14" t="s">
+      <c r="I25" s="14">
+        <v>1</v>
+      </c>
+      <c r="J25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N25" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>24</v>
       </c>
@@ -1392,39 +1236,30 @@
       <c r="D27" s="11">
         <v>2</v>
       </c>
-      <c r="E27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="12">
+      <c r="F27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="12">
         <v>10000000</v>
       </c>
-      <c r="L27" s="11">
-        <v>1</v>
-      </c>
-      <c r="M27" s="11" t="s">
+      <c r="I27" s="11">
+        <v>1</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -1437,38 +1272,29 @@
       <c r="D29" s="5">
         <v>1</v>
       </c>
-      <c r="E29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="6">
+      <c r="F29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="6">
         <v>10000000</v>
       </c>
-      <c r="L29" s="5">
-        <v>1</v>
-      </c>
-      <c r="M29" s="5" t="s">
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -1481,38 +1307,29 @@
       <c r="D30" s="5">
         <v>1</v>
       </c>
-      <c r="E30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="6">
+      <c r="F30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="6">
         <v>10000001</v>
       </c>
-      <c r="L30" s="5">
-        <v>1</v>
-      </c>
-      <c r="M30" s="5" t="s">
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N30" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
@@ -1525,39 +1342,30 @@
       <c r="D31" s="5">
         <v>1</v>
       </c>
-      <c r="E31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="6">
+      <c r="F31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="6">
         <v>25000001</v>
       </c>
-      <c r="L31" s="5">
-        <v>1</v>
-      </c>
-      <c r="M31" s="5" t="s">
+      <c r="I31" s="5">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N31" s="5">
+      <c r="K31" s="5">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1566,12 +1374,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC437012-F5A6-401D-8849-604B5A42ACA5}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1580,20 +1388,17 @@
     <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="133.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="19.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="133.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1607,37 +1412,28 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1646,44 +1442,35 @@
       </c>
       <c r="C2" s="16">
         <f ca="1">TODAY()</f>
-        <v>43382</v>
+        <v>43385</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="6">
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6">
         <v>7500000</v>
       </c>
-      <c r="L2" s="5">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
@@ -1692,43 +1479,34 @@
       </c>
       <c r="C4" s="18">
         <f t="shared" ref="C4:C9" ca="1" si="0">TODAY()</f>
-        <v>43382</v>
+        <v>43385</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
       </c>
-      <c r="E4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="F4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="12">
         <v>3000000</v>
       </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11" t="s">
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -1737,43 +1515,34 @@
       </c>
       <c r="C5" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>43382</v>
+        <v>43385</v>
       </c>
       <c r="D5" s="11">
         <v>2</v>
       </c>
-      <c r="E5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="12">
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="12">
         <v>3000000</v>
       </c>
-      <c r="L5" s="11">
-        <v>1</v>
-      </c>
-      <c r="M5" s="11" t="s">
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -1782,43 +1551,34 @@
       </c>
       <c r="C6" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>43382</v>
+        <v>43385</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
       </c>
-      <c r="E6" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="12">
+      <c r="F6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="12">
         <v>1300000</v>
       </c>
-      <c r="L6" s="11">
-        <v>1</v>
-      </c>
-      <c r="M6" s="11" t="s">
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -1827,43 +1587,34 @@
       </c>
       <c r="C7" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>43382</v>
+        <v>43385</v>
       </c>
       <c r="D7" s="11">
         <v>2</v>
       </c>
-      <c r="E7" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="12">
+      <c r="F7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="12">
         <v>1300000</v>
       </c>
-      <c r="L7" s="11">
-        <v>1</v>
-      </c>
-      <c r="M7" s="11" t="s">
+      <c r="I7" s="11">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -1872,43 +1623,34 @@
       </c>
       <c r="C8" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>43382</v>
+        <v>43385</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
       </c>
-      <c r="E8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="12">
+      <c r="F8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="12">
         <v>10000000</v>
       </c>
-      <c r="L8" s="11">
-        <v>1</v>
-      </c>
-      <c r="M8" s="11" t="s">
+      <c r="I8" s="11">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
@@ -1917,43 +1659,34 @@
       </c>
       <c r="C9" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>43382</v>
+        <v>43385</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="12">
+      <c r="F9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="12">
         <v>3000000</v>
       </c>
-      <c r="L9" s="11">
-        <v>1</v>
-      </c>
-      <c r="M9" s="11" t="s">
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
@@ -1966,38 +1699,29 @@
       <c r="D10" s="11">
         <v>2</v>
       </c>
-      <c r="E10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="12">
+      <c r="F10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="12">
         <v>10000000</v>
       </c>
-      <c r="L10" s="11">
-        <v>1</v>
-      </c>
-      <c r="M10" s="11" t="s">
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
@@ -2010,38 +1734,29 @@
       <c r="D11" s="11">
         <v>2</v>
       </c>
-      <c r="E11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="12">
+      <c r="F11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="12">
         <v>3000000</v>
       </c>
-      <c r="L11" s="11">
-        <v>1</v>
-      </c>
-      <c r="M11" s="11" t="s">
+      <c r="I11" s="11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
@@ -2054,38 +1769,29 @@
       <c r="D12" s="11">
         <v>2</v>
       </c>
-      <c r="E12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="12">
+      <c r="F12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="12">
         <v>10000000</v>
       </c>
-      <c r="L12" s="11">
-        <v>1</v>
-      </c>
-      <c r="M12" s="11" t="s">
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -2098,38 +1804,29 @@
       <c r="D13" s="8">
         <v>3</v>
       </c>
-      <c r="E13" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="9">
+      <c r="F13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="9">
         <v>10000000</v>
       </c>
-      <c r="L13" s="8">
-        <v>1</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -2142,38 +1839,29 @@
       <c r="D14" s="8">
         <v>3</v>
       </c>
-      <c r="E14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="9">
+      <c r="F14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="9">
         <v>10000001</v>
       </c>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" s="8" t="s">
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N14" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K14" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
@@ -2186,38 +1874,29 @@
       <c r="D15" s="8">
         <v>3</v>
       </c>
-      <c r="E15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="9">
+      <c r="F15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="9">
         <v>25000001</v>
       </c>
-      <c r="L15" s="8">
-        <v>1</v>
-      </c>
-      <c r="M15" s="8" t="s">
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="8">
+      <c r="K15" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
@@ -2230,38 +1909,29 @@
       <c r="D16" s="14">
         <v>4</v>
       </c>
-      <c r="E16" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13" t="s">
+      <c r="E16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="15">
+      <c r="F16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="15">
         <v>10000000</v>
       </c>
-      <c r="L16" s="14">
-        <v>1</v>
-      </c>
-      <c r="M16" s="14" t="s">
+      <c r="I16" s="14">
+        <v>1</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>17</v>
       </c>
@@ -2274,38 +1944,29 @@
       <c r="D17" s="14">
         <v>4</v>
       </c>
-      <c r="E17" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13" t="s">
+      <c r="E17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="15">
+      <c r="F17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="15">
         <v>10000000</v>
       </c>
-      <c r="L17" s="14">
-        <v>1</v>
-      </c>
-      <c r="M17" s="14" t="s">
+      <c r="I17" s="14">
+        <v>1</v>
+      </c>
+      <c r="J17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="N17" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K17" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
@@ -2318,38 +1979,29 @@
       <c r="D18" s="14">
         <v>4</v>
       </c>
-      <c r="E18" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="13" t="s">
+      <c r="E18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="15">
+      <c r="F18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="15">
         <v>10000000</v>
       </c>
-      <c r="L18" s="14">
-        <v>1</v>
-      </c>
-      <c r="M18" s="14" t="s">
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K18" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -2362,38 +2014,29 @@
       <c r="D19" s="11">
         <v>2</v>
       </c>
-      <c r="E19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="12">
+      <c r="F19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="12">
         <v>10000000</v>
       </c>
-      <c r="L19" s="11">
-        <v>1</v>
-      </c>
-      <c r="M19" s="11" t="s">
+      <c r="I19" s="11">
+        <v>1</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -2406,38 +2049,29 @@
       <c r="D20" s="5">
         <v>1</v>
       </c>
-      <c r="E20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="6">
+      <c r="F20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="6">
         <v>10000000</v>
       </c>
-      <c r="L20" s="5">
-        <v>1</v>
-      </c>
-      <c r="M20" s="5" t="s">
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
@@ -2450,38 +2084,29 @@
       <c r="D21" s="5">
         <v>1</v>
       </c>
-      <c r="E21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="6">
+      <c r="F21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="6">
         <v>10000001</v>
       </c>
-      <c r="L21" s="5">
-        <v>1</v>
-      </c>
-      <c r="M21" s="5" t="s">
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N21" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -2494,39 +2119,30 @@
       <c r="D22" s="5">
         <v>1</v>
       </c>
-      <c r="E22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="F22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="6">
         <v>25000001</v>
       </c>
-      <c r="L22" s="5">
-        <v>1</v>
-      </c>
-      <c r="M22" s="5" t="s">
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N22" s="5">
+      <c r="K22" s="5">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
